--- a/raspisanie.xlsx
+++ b/raspisanie.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -62,12 +62,8 @@
       <b val="1"/>
       <color rgb="0052181b"/>
     </font>
-    <font>
-      <b val="1"/>
-      <color rgb="00000000"/>
-    </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill/>
     </fill>
@@ -102,11 +98,6 @@
         <fgColor rgb="00ff707a"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00427bf5"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="19">
     <border>
@@ -366,7 +357,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
@@ -431,12 +422,6 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -788,7 +773,7 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="10.85546875" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="20.7109375" customWidth="1" min="2" max="11"/>
@@ -833,13 +818,8 @@
           <t>08.45-10.15</t>
         </is>
       </c>
-      <c r="B2" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">АКС - 31
-</t>
-        </is>
-      </c>
-      <c r="C2" s="24" t="inlineStr">
+      <c r="B2" s="12" t="n"/>
+      <c r="C2" s="23" t="inlineStr">
         <is>
           <t xml:space="preserve">АКС 21 
 АКС 23 
@@ -847,62 +827,25 @@
 </t>
         </is>
       </c>
-      <c r="D2" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ИБ - 32
-</t>
-        </is>
-      </c>
+      <c r="D2" s="12" t="n"/>
       <c r="E2" s="20" t="inlineStr">
         <is>
-          <t xml:space="preserve">ИБ - 32
+          <t xml:space="preserve">ИБ 33 
+</t>
+        </is>
+      </c>
+      <c r="F2" s="12" t="n"/>
+      <c r="G2" s="20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ИБ 32 
 ИБ 33 
 </t>
         </is>
       </c>
-      <c r="F2" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">АКС - 24
-АКС - 32
-</t>
-        </is>
-      </c>
-      <c r="G2" s="24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">АКС - 24
-ИБ 32 
-ИБ 33 
-</t>
-        </is>
-      </c>
-      <c r="H2" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">АКС - 23
-ПКС - 23
-ИБ - 33
-</t>
-        </is>
-      </c>
-      <c r="I2" s="14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">АКС - 23
-ПКС - 23
-ИБ - 33
-</t>
-        </is>
-      </c>
-      <c r="J2" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ПКС - 24
-</t>
-        </is>
-      </c>
-      <c r="K2" s="14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ПКС - 24
-</t>
-        </is>
-      </c>
+      <c r="H2" s="12" t="n"/>
+      <c r="I2" s="14" t="n"/>
+      <c r="J2" s="12" t="n"/>
+      <c r="K2" s="14" t="n"/>
     </row>
     <row r="3" ht="50.1" customHeight="1">
       <c r="A3" s="3" t="inlineStr">
@@ -910,14 +853,8 @@
           <t>10.30-12.00</t>
         </is>
       </c>
-      <c r="B3" s="15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ПКС - 21
-ИБ - 32
-</t>
-        </is>
-      </c>
-      <c r="C3" s="25" t="inlineStr">
+      <c r="B3" s="15" t="n"/>
+      <c r="C3" s="21" t="inlineStr">
         <is>
           <t xml:space="preserve">ИБ 32 
 ИБ 32 
@@ -925,62 +862,26 @@
 </t>
         </is>
       </c>
-      <c r="D3" s="15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ИБ - 33
-</t>
-        </is>
-      </c>
-      <c r="E3" s="25" t="inlineStr">
+      <c r="D3" s="15" t="n"/>
+      <c r="E3" s="22" t="inlineStr">
         <is>
           <t xml:space="preserve">ПКС 25 
 ПКС 24 
 </t>
         </is>
       </c>
-      <c r="F3" s="15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">АКС - 23
-ИБ - 32
-</t>
-        </is>
-      </c>
-      <c r="G3" s="25" t="inlineStr">
-        <is>
-          <t xml:space="preserve">АКС - 23
-АКС 21 
+      <c r="F3" s="15" t="n"/>
+      <c r="G3" s="22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">АКС 21 
 АКС 24 
 </t>
         </is>
       </c>
-      <c r="H3" s="15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ПКС - 23
-ИБ - 32
-</t>
-        </is>
-      </c>
-      <c r="I3" s="16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ПКС - 23
-ИБ - 32
-</t>
-        </is>
-      </c>
-      <c r="J3" s="15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">АКС - 21
-АКС - 24
-</t>
-        </is>
-      </c>
-      <c r="K3" s="16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">АКС - 21
-АКС - 24
-</t>
-        </is>
-      </c>
+      <c r="H3" s="15" t="n"/>
+      <c r="I3" s="16" t="n"/>
+      <c r="J3" s="15" t="n"/>
+      <c r="K3" s="16" t="n"/>
     </row>
     <row r="4" ht="50.1" customHeight="1">
       <c r="A4" s="3" t="inlineStr">
@@ -988,80 +889,34 @@
           <t>12.40-14.10</t>
         </is>
       </c>
-      <c r="B4" s="15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">АКС - 24
-ПКС - 22
-ИБ - 33
-</t>
-        </is>
-      </c>
-      <c r="C4" s="25" t="inlineStr">
-        <is>
-          <t xml:space="preserve">АКС - 24
-ПКС - 22
-АКС 21 
+      <c r="B4" s="15" t="n"/>
+      <c r="C4" s="22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">АКС 21 
 АКС 23 
 </t>
         </is>
       </c>
-      <c r="D4" s="15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ИБ - 21
-</t>
-        </is>
-      </c>
+      <c r="D4" s="15" t="n"/>
       <c r="E4" s="21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ИБ - 21
-ПКС 22 
-ПКС 23 
-</t>
-        </is>
-      </c>
-      <c r="F4" s="15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ИБ - 33
-</t>
-        </is>
-      </c>
-      <c r="G4" s="25" t="inlineStr">
         <is>
           <t xml:space="preserve">ПКС 22 
 ПКС 23 
 </t>
         </is>
       </c>
-      <c r="H4" s="15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">АКС - 21
-ПКС - 24
-ИБ - 32
-</t>
-        </is>
-      </c>
-      <c r="I4" s="16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">АКС - 21
-ПКС - 24
-ИБ - 32
-</t>
-        </is>
-      </c>
-      <c r="J4" s="15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ПКС - 22
-ПКС - 24
-</t>
-        </is>
-      </c>
-      <c r="K4" s="16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ПКС - 22
-ПКС - 24
-</t>
-        </is>
-      </c>
+      <c r="F4" s="15" t="n"/>
+      <c r="G4" s="22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ПКС 22 
+ПКС 23 
+</t>
+        </is>
+      </c>
+      <c r="H4" s="15" t="n"/>
+      <c r="I4" s="16" t="n"/>
+      <c r="J4" s="15" t="n"/>
+      <c r="K4" s="16" t="n"/>
     </row>
     <row r="5" ht="50.1" customHeight="1">
       <c r="A5" s="3" t="inlineStr">
@@ -1069,58 +924,30 @@
           <t>14.20-15.50</t>
         </is>
       </c>
-      <c r="B5" s="15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ИБ - 33
-</t>
-        </is>
-      </c>
+      <c r="B5" s="15" t="n"/>
       <c r="C5" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">ИБ - 33
-ИБ 32 
-</t>
-        </is>
-      </c>
-      <c r="D5" s="15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">АКС - 23
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">ИБ 32 
+</t>
+        </is>
+      </c>
+      <c r="D5" s="15" t="n"/>
       <c r="E5" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">АКС - 23
-АКС 24 
+          <t xml:space="preserve">АКС 24 
 АКС 21 
 </t>
         </is>
       </c>
-      <c r="F5" s="15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ИБ - 33
-</t>
-        </is>
-      </c>
+      <c r="F5" s="15" t="n"/>
       <c r="G5" s="21" t="inlineStr">
         <is>
-          <t xml:space="preserve">ИБ - 33
-ИБ 32 
-</t>
-        </is>
-      </c>
-      <c r="H5" s="15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ИБ - 32
-</t>
-        </is>
-      </c>
-      <c r="I5" s="16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ИБ - 32
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">ИБ 32 
+</t>
+        </is>
+      </c>
+      <c r="H5" s="15" t="n"/>
+      <c r="I5" s="16" t="n"/>
       <c r="J5" s="15" t="n"/>
       <c r="K5" s="16" t="n"/>
     </row>
@@ -1130,28 +957,12 @@
           <t>16.00-17.30</t>
         </is>
       </c>
-      <c r="B6" s="15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">АКС - 33
-</t>
-        </is>
-      </c>
-      <c r="C6" s="22" t="inlineStr"/>
+      <c r="B6" s="15" t="n"/>
+      <c r="C6" s="22" t="n"/>
       <c r="D6" s="15" t="n"/>
       <c r="E6" s="16" t="n"/>
-      <c r="F6" s="15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ИБ - 32
-ИБ - 33
-</t>
-        </is>
-      </c>
-      <c r="G6" s="25" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ИБ - 32
-</t>
-        </is>
-      </c>
+      <c r="F6" s="15" t="n"/>
+      <c r="G6" s="22" t="n"/>
       <c r="H6" s="15" t="n"/>
       <c r="I6" s="16" t="n"/>
       <c r="J6" s="15" t="n"/>

--- a/raspisanie.xlsx
+++ b/raspisanie.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -62,8 +62,12 @@
       <b val="1"/>
       <color rgb="0052181b"/>
     </font>
+    <font>
+      <b val="1"/>
+      <color rgb="00000000"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill/>
     </fill>
@@ -98,6 +102,11 @@
         <fgColor rgb="00ff707a"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00427bf5"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="19">
     <border>
@@ -357,7 +366,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
@@ -412,6 +421,9 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -421,7 +433,10 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -773,7 +788,7 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col width="10.85546875" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="20.7109375" customWidth="1" min="2" max="11"/>
@@ -818,8 +833,13 @@
           <t>08.45-10.15</t>
         </is>
       </c>
-      <c r="B2" s="12" t="n"/>
-      <c r="C2" s="23" t="inlineStr">
+      <c r="B2" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">АКС - 31
+</t>
+        </is>
+      </c>
+      <c r="C2" s="24" t="inlineStr">
         <is>
           <t xml:space="preserve">АКС 21 
 АКС 23 
@@ -827,25 +847,62 @@
 </t>
         </is>
       </c>
-      <c r="D2" s="12" t="n"/>
-      <c r="E2" s="20" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ИБ 33 
-</t>
-        </is>
-      </c>
-      <c r="F2" s="12" t="n"/>
-      <c r="G2" s="20" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ИБ 32 
+      <c r="D2" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ИБ - 32
+</t>
+        </is>
+      </c>
+      <c r="E2" s="21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ИБ - 32
 ИБ 33 
 </t>
         </is>
       </c>
-      <c r="H2" s="12" t="n"/>
-      <c r="I2" s="14" t="n"/>
-      <c r="J2" s="12" t="n"/>
-      <c r="K2" s="14" t="n"/>
+      <c r="F2" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">АКС - 24
+АКС - 32
+</t>
+        </is>
+      </c>
+      <c r="G2" s="24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">АКС - 24
+ИБ 32 
+ИБ 33 
+</t>
+        </is>
+      </c>
+      <c r="H2" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">АКС - 23
+ПКС - 23
+ИБ - 33
+</t>
+        </is>
+      </c>
+      <c r="I2" s="14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">АКС - 23
+ПКС - 23
+ИБ - 33
+</t>
+        </is>
+      </c>
+      <c r="J2" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ПКС - 24
+</t>
+        </is>
+      </c>
+      <c r="K2" s="14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ПКС - 24
+</t>
+        </is>
+      </c>
     </row>
     <row r="3" ht="50.1" customHeight="1">
       <c r="A3" s="3" t="inlineStr">
@@ -853,35 +910,75 @@
           <t>10.30-12.00</t>
         </is>
       </c>
-      <c r="B3" s="15" t="n"/>
-      <c r="C3" s="21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ИБ 32 
-ИБ 32 
-ИБ 33 
-</t>
-        </is>
-      </c>
-      <c r="D3" s="15" t="n"/>
-      <c r="E3" s="22" t="inlineStr">
+      <c r="B3" s="15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ПКС - 21
+ИБ - 32
+</t>
+        </is>
+      </c>
+      <c r="C3" s="25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ИБ 33 
+</t>
+        </is>
+      </c>
+      <c r="D3" s="15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ИБ - 33
+</t>
+        </is>
+      </c>
+      <c r="E3" s="25" t="inlineStr">
         <is>
           <t xml:space="preserve">ПКС 25 
 ПКС 24 
 </t>
         </is>
       </c>
-      <c r="F3" s="15" t="n"/>
-      <c r="G3" s="22" t="inlineStr">
-        <is>
-          <t xml:space="preserve">АКС 21 
+      <c r="F3" s="15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">АКС - 23
+ИБ - 32
+</t>
+        </is>
+      </c>
+      <c r="G3" s="25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">АКС - 23
+АКС 21 
 АКС 24 
 </t>
         </is>
       </c>
-      <c r="H3" s="15" t="n"/>
-      <c r="I3" s="16" t="n"/>
-      <c r="J3" s="15" t="n"/>
-      <c r="K3" s="16" t="n"/>
+      <c r="H3" s="15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ПКС - 23
+ИБ - 32
+</t>
+        </is>
+      </c>
+      <c r="I3" s="16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ПКС - 23
+ИБ - 32
+</t>
+        </is>
+      </c>
+      <c r="J3" s="15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">АКС - 21
+АКС - 24
+</t>
+        </is>
+      </c>
+      <c r="K3" s="16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">АКС - 21
+АКС - 24
+</t>
+        </is>
+      </c>
     </row>
     <row r="4" ht="50.1" customHeight="1">
       <c r="A4" s="3" t="inlineStr">
@@ -889,34 +986,80 @@
           <t>12.40-14.10</t>
         </is>
       </c>
-      <c r="B4" s="15" t="n"/>
-      <c r="C4" s="22" t="inlineStr">
-        <is>
-          <t xml:space="preserve">АКС 21 
+      <c r="B4" s="15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">АКС - 24
+ПКС - 22
+ИБ - 33
+</t>
+        </is>
+      </c>
+      <c r="C4" s="25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">АКС - 24
+ПКС - 22
+АКС 21 
 АКС 23 
 </t>
         </is>
       </c>
-      <c r="D4" s="15" t="n"/>
-      <c r="E4" s="21" t="inlineStr">
+      <c r="D4" s="15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ИБ - 21
+</t>
+        </is>
+      </c>
+      <c r="E4" s="22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ИБ - 21
+ПКС 22 
+ПКС 23 
+</t>
+        </is>
+      </c>
+      <c r="F4" s="15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ИБ - 33
+</t>
+        </is>
+      </c>
+      <c r="G4" s="25" t="inlineStr">
         <is>
           <t xml:space="preserve">ПКС 22 
 ПКС 23 
 </t>
         </is>
       </c>
-      <c r="F4" s="15" t="n"/>
-      <c r="G4" s="22" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ПКС 22 
-ПКС 23 
-</t>
-        </is>
-      </c>
-      <c r="H4" s="15" t="n"/>
-      <c r="I4" s="16" t="n"/>
-      <c r="J4" s="15" t="n"/>
-      <c r="K4" s="16" t="n"/>
+      <c r="H4" s="15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">АКС - 21
+ПКС - 24
+ИБ - 32
+</t>
+        </is>
+      </c>
+      <c r="I4" s="16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">АКС - 21
+ПКС - 24
+ИБ - 32
+</t>
+        </is>
+      </c>
+      <c r="J4" s="15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ПКС - 22
+ПКС - 24
+</t>
+        </is>
+      </c>
+      <c r="K4" s="16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ПКС - 22
+ПКС - 24
+</t>
+        </is>
+      </c>
     </row>
     <row r="5" ht="50.1" customHeight="1">
       <c r="A5" s="3" t="inlineStr">
@@ -924,30 +1067,58 @@
           <t>14.20-15.50</t>
         </is>
       </c>
-      <c r="B5" s="15" t="n"/>
-      <c r="C5" s="21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ИБ 32 
-</t>
-        </is>
-      </c>
-      <c r="D5" s="15" t="n"/>
-      <c r="E5" s="21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">АКС 24 
+      <c r="B5" s="15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ИБ - 33
+</t>
+        </is>
+      </c>
+      <c r="C5" s="22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ИБ - 33
+ИБ 32 
+</t>
+        </is>
+      </c>
+      <c r="D5" s="15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">АКС - 23
+</t>
+        </is>
+      </c>
+      <c r="E5" s="22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">АКС - 23
+АКС 24 
 АКС 21 
 </t>
         </is>
       </c>
-      <c r="F5" s="15" t="n"/>
-      <c r="G5" s="21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ИБ 32 
-</t>
-        </is>
-      </c>
-      <c r="H5" s="15" t="n"/>
-      <c r="I5" s="16" t="n"/>
+      <c r="F5" s="15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ИБ - 33
+</t>
+        </is>
+      </c>
+      <c r="G5" s="22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ИБ - 33
+ИБ 32 
+</t>
+        </is>
+      </c>
+      <c r="H5" s="15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ИБ - 32
+</t>
+        </is>
+      </c>
+      <c r="I5" s="16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ИБ - 32
+</t>
+        </is>
+      </c>
       <c r="J5" s="15" t="n"/>
       <c r="K5" s="16" t="n"/>
     </row>
@@ -957,12 +1128,28 @@
           <t>16.00-17.30</t>
         </is>
       </c>
-      <c r="B6" s="15" t="n"/>
-      <c r="C6" s="22" t="n"/>
+      <c r="B6" s="15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">АКС - 33
+</t>
+        </is>
+      </c>
+      <c r="C6" s="23" t="inlineStr"/>
       <c r="D6" s="15" t="n"/>
       <c r="E6" s="16" t="n"/>
-      <c r="F6" s="15" t="n"/>
-      <c r="G6" s="22" t="n"/>
+      <c r="F6" s="15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ИБ - 32
+ИБ - 33
+</t>
+        </is>
+      </c>
+      <c r="G6" s="25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ИБ - 32
+</t>
+        </is>
+      </c>
       <c r="H6" s="15" t="n"/>
       <c r="I6" s="16" t="n"/>
       <c r="J6" s="15" t="n"/>

--- a/raspisanie.xlsx
+++ b/raspisanie.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-21720" yWindow="-120" windowWidth="21840" windowHeight="13740" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Лист1" sheetId="1" state="visible" r:id="rId1"/>
@@ -50,13 +50,20 @@
     </font>
     <font>
       <name val="Calibri"/>
+      <charset val="204"/>
+      <family val="2"/>
       <b val="1"/>
-      <color rgb="FF1B4715"/>
+      <color theme="1"/>
       <sz val="11"/>
+      <scheme val="minor"/>
     </font>
     <font>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <family val="2"/>
       <b val="1"/>
-      <color rgb="001b4715"/>
+      <color theme="1"/>
+      <sz val="11"/>
     </font>
     <font>
       <b val="1"/>
@@ -64,10 +71,10 @@
     </font>
     <font>
       <b val="1"/>
-      <color rgb="00000000"/>
+      <color rgb="001b4715"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill/>
     </fill>
@@ -94,17 +101,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0086d980"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="00ff707a"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00427bf5"/>
+        <fgColor rgb="0086d980"/>
       </patternFill>
     </fill>
   </fills>
@@ -366,7 +368,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
@@ -397,46 +399,37 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -785,10 +778,10 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="10.85546875" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="20.7109375" customWidth="1" min="2" max="11"/>
@@ -835,71 +828,59 @@
       </c>
       <c r="B2" s="12" t="inlineStr">
         <is>
-          <t xml:space="preserve">АКС - 31
-</t>
-        </is>
-      </c>
-      <c r="C2" s="24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">АКС 21 
-АКС 23 
-АКС 24 
+          <t xml:space="preserve">ПКС - 32
+</t>
+        </is>
+      </c>
+      <c r="C2" s="13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ПКС - 32
 </t>
         </is>
       </c>
       <c r="D2" s="12" t="inlineStr">
         <is>
-          <t xml:space="preserve">ИБ - 32
-</t>
-        </is>
-      </c>
-      <c r="E2" s="21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ИБ - 32
-ИБ 33 
+          <t xml:space="preserve">ПКС - 31
+ПКС - 32
+</t>
+        </is>
+      </c>
+      <c r="E2" s="20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ПКС - 31
+ПКС - 32
+ПКС 31 
 </t>
         </is>
       </c>
       <c r="F2" s="12" t="inlineStr">
         <is>
-          <t xml:space="preserve">АКС - 24
-АКС - 32
-</t>
-        </is>
-      </c>
-      <c r="G2" s="24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">АКС - 24
-ИБ 32 
-ИБ 33 
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">ПКС - 31
+</t>
+        </is>
+      </c>
+      <c r="G2" s="21" t="inlineStr"/>
       <c r="H2" s="12" t="inlineStr">
         <is>
-          <t xml:space="preserve">АКС - 23
-ПКС - 23
-ИБ - 33
+          <t xml:space="preserve">ПКС - 22
 </t>
         </is>
       </c>
       <c r="I2" s="14" t="inlineStr">
         <is>
-          <t xml:space="preserve">АКС - 23
-ПКС - 23
-ИБ - 33
+          <t xml:space="preserve">ПКС - 22
 </t>
         </is>
       </c>
       <c r="J2" s="12" t="inlineStr">
         <is>
-          <t xml:space="preserve">ПКС - 24
+          <t xml:space="preserve">ПКС - 21
 </t>
         </is>
       </c>
       <c r="K2" s="14" t="inlineStr">
         <is>
-          <t xml:space="preserve">ПКС - 24
+          <t xml:space="preserve">ПКС - 21
 </t>
         </is>
       </c>
@@ -912,73 +893,49 @@
       </c>
       <c r="B3" s="15" t="inlineStr">
         <is>
-          <t xml:space="preserve">ПКС - 21
-ИБ - 32
-</t>
-        </is>
-      </c>
-      <c r="C3" s="25" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ИБ 33 
+          <t xml:space="preserve">ПКС - 31
+</t>
+        </is>
+      </c>
+      <c r="C3" s="16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ПКС - 31
 </t>
         </is>
       </c>
       <c r="D3" s="15" t="inlineStr">
         <is>
-          <t xml:space="preserve">ИБ - 33
-</t>
-        </is>
-      </c>
-      <c r="E3" s="25" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ПКС 25 
-ПКС 24 
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">ПКС - 24
+</t>
+        </is>
+      </c>
+      <c r="E3" s="22" t="inlineStr"/>
       <c r="F3" s="15" t="inlineStr">
         <is>
-          <t xml:space="preserve">АКС - 23
-ИБ - 32
-</t>
-        </is>
-      </c>
-      <c r="G3" s="25" t="inlineStr">
-        <is>
-          <t xml:space="preserve">АКС - 23
-АКС 21 
-АКС 24 
+          <t xml:space="preserve">ПКС - 32
+</t>
+        </is>
+      </c>
+      <c r="G3" s="16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ПКС - 32
 </t>
         </is>
       </c>
       <c r="H3" s="15" t="inlineStr">
         <is>
-          <t xml:space="preserve">ПКС - 23
-ИБ - 32
+          <t xml:space="preserve">ПКС - 24
 </t>
         </is>
       </c>
       <c r="I3" s="16" t="inlineStr">
         <is>
-          <t xml:space="preserve">ПКС - 23
-ИБ - 32
-</t>
-        </is>
-      </c>
-      <c r="J3" s="15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">АКС - 21
-АКС - 24
-</t>
-        </is>
-      </c>
-      <c r="K3" s="16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">АКС - 21
-АКС - 24
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">ПКС - 24
+</t>
+        </is>
+      </c>
+      <c r="J3" s="15" t="n"/>
+      <c r="K3" s="16" t="n"/>
     </row>
     <row r="4" ht="50.1" customHeight="1">
       <c r="A4" s="3" t="inlineStr">
@@ -988,78 +945,44 @@
       </c>
       <c r="B4" s="15" t="inlineStr">
         <is>
-          <t xml:space="preserve">АКС - 24
-ПКС - 22
-ИБ - 33
-</t>
-        </is>
-      </c>
-      <c r="C4" s="25" t="inlineStr">
-        <is>
-          <t xml:space="preserve">АКС - 24
-ПКС - 22
-АКС 21 
-АКС 23 
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">ПКС - 32
+</t>
+        </is>
+      </c>
+      <c r="C4" s="22" t="inlineStr"/>
       <c r="D4" s="15" t="inlineStr">
         <is>
-          <t xml:space="preserve">ИБ - 21
-</t>
-        </is>
-      </c>
-      <c r="E4" s="22" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ИБ - 21
-ПКС 22 
-ПКС 23 
+          <t xml:space="preserve">ПКС - 25
+</t>
+        </is>
+      </c>
+      <c r="E4" s="16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ПКС - 25
 </t>
         </is>
       </c>
       <c r="F4" s="15" t="inlineStr">
         <is>
-          <t xml:space="preserve">ИБ - 33
-</t>
-        </is>
-      </c>
-      <c r="G4" s="25" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ПКС 22 
-ПКС 23 
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">ПКС - 22
+</t>
+        </is>
+      </c>
+      <c r="G4" s="22" t="inlineStr"/>
       <c r="H4" s="15" t="inlineStr">
         <is>
-          <t xml:space="preserve">АКС - 21
-ПКС - 24
-ИБ - 32
+          <t xml:space="preserve">ПКС - 25
 </t>
         </is>
       </c>
       <c r="I4" s="16" t="inlineStr">
         <is>
-          <t xml:space="preserve">АКС - 21
-ПКС - 24
-ИБ - 32
-</t>
-        </is>
-      </c>
-      <c r="J4" s="15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ПКС - 22
-ПКС - 24
-</t>
-        </is>
-      </c>
-      <c r="K4" s="16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ПКС - 22
-ПКС - 24
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">ПКС - 25
+</t>
+        </is>
+      </c>
+      <c r="J4" s="15" t="n"/>
+      <c r="K4" s="16" t="n"/>
     </row>
     <row r="5" ht="50.1" customHeight="1">
       <c r="A5" s="3" t="inlineStr">
@@ -1069,53 +992,44 @@
       </c>
       <c r="B5" s="15" t="inlineStr">
         <is>
-          <t xml:space="preserve">ИБ - 33
-</t>
-        </is>
-      </c>
-      <c r="C5" s="22" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ИБ - 33
-ИБ 32 
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">ПКС - 31
+</t>
+        </is>
+      </c>
+      <c r="C5" s="22" t="inlineStr"/>
       <c r="D5" s="15" t="inlineStr">
         <is>
-          <t xml:space="preserve">АКС - 23
-</t>
-        </is>
-      </c>
-      <c r="E5" s="22" t="inlineStr">
-        <is>
-          <t xml:space="preserve">АКС - 23
-АКС 24 
-АКС 21 
+          <t xml:space="preserve">ПКС - 23
+</t>
+        </is>
+      </c>
+      <c r="E5" s="16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ПКС - 23
 </t>
         </is>
       </c>
       <c r="F5" s="15" t="inlineStr">
         <is>
-          <t xml:space="preserve">ИБ - 33
-</t>
-        </is>
-      </c>
-      <c r="G5" s="22" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ИБ - 33
-ИБ 32 
+          <t xml:space="preserve">ПКС - 21
+</t>
+        </is>
+      </c>
+      <c r="G5" s="16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ПКС - 21
 </t>
         </is>
       </c>
       <c r="H5" s="15" t="inlineStr">
         <is>
-          <t xml:space="preserve">ИБ - 32
+          <t xml:space="preserve">ПКС - 23
 </t>
         </is>
       </c>
       <c r="I5" s="16" t="inlineStr">
         <is>
-          <t xml:space="preserve">ИБ - 32
+          <t xml:space="preserve">ПКС - 23
 </t>
         </is>
       </c>
@@ -1128,28 +1042,12 @@
           <t>16.00-17.30</t>
         </is>
       </c>
-      <c r="B6" s="15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">АКС - 33
-</t>
-        </is>
-      </c>
-      <c r="C6" s="23" t="inlineStr"/>
+      <c r="B6" s="15" t="n"/>
+      <c r="C6" s="16" t="n"/>
       <c r="D6" s="15" t="n"/>
       <c r="E6" s="16" t="n"/>
-      <c r="F6" s="15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ИБ - 32
-ИБ - 33
-</t>
-        </is>
-      </c>
-      <c r="G6" s="25" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ИБ - 32
-</t>
-        </is>
-      </c>
+      <c r="F6" s="15" t="n"/>
+      <c r="G6" s="16" t="n"/>
       <c r="H6" s="15" t="n"/>
       <c r="I6" s="16" t="n"/>
       <c r="J6" s="15" t="n"/>

--- a/raspisanie.xlsx
+++ b/raspisanie.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -67,14 +67,18 @@
     </font>
     <font>
       <b val="1"/>
+      <color rgb="001b4715"/>
+    </font>
+    <font>
+      <b val="1"/>
       <color rgb="0052181b"/>
     </font>
     <font>
       <b val="1"/>
-      <color rgb="001b4715"/>
+      <color rgb="00000000"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill/>
     </fill>
@@ -101,12 +105,17 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="0086d980"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="00ff707a"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0086d980"/>
+        <fgColor rgb="00427bf5"/>
       </patternFill>
     </fill>
   </fills>
@@ -368,7 +377,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
@@ -430,6 +439,15 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -781,7 +799,7 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col width="10.85546875" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="20.7109375" customWidth="1" min="2" max="11"/>
@@ -828,62 +846,64 @@
       </c>
       <c r="B2" s="12" t="inlineStr">
         <is>
-          <t xml:space="preserve">ПКС - 32
-</t>
-        </is>
-      </c>
-      <c r="C2" s="13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ПКС - 32
+          <t xml:space="preserve">АКС - 31
+</t>
+        </is>
+      </c>
+      <c r="C2" s="24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">АКС - 21 
+АКС - 23 
+АКС - 24 
 </t>
         </is>
       </c>
       <c r="D2" s="12" t="inlineStr">
         <is>
-          <t xml:space="preserve">ПКС - 31
-ПКС - 32
-</t>
-        </is>
-      </c>
-      <c r="E2" s="20" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ПКС - 31
-ПКС - 32
-ПКС 31 
+          <t xml:space="preserve">ИБ - 32
+</t>
+        </is>
+      </c>
+      <c r="E2" s="21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ИБ - 32
+ИБ - 33 
 </t>
         </is>
       </c>
       <c r="F2" s="12" t="inlineStr">
         <is>
-          <t xml:space="preserve">ПКС - 31
-</t>
-        </is>
-      </c>
-      <c r="G2" s="21" t="inlineStr"/>
+          <t xml:space="preserve">АКС - 24
+АКС - 32
+</t>
+        </is>
+      </c>
+      <c r="G2" s="24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">АКС - 24
+ИБ - 32 
+ИБ - 33 
+</t>
+        </is>
+      </c>
       <c r="H2" s="12" t="inlineStr">
         <is>
-          <t xml:space="preserve">ПКС - 22
+          <t xml:space="preserve">АКС - 23
+ПКС - 23
+ИБ - 33
 </t>
         </is>
       </c>
       <c r="I2" s="14" t="inlineStr">
         <is>
-          <t xml:space="preserve">ПКС - 22
-</t>
-        </is>
-      </c>
-      <c r="J2" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ПКС - 21
-</t>
-        </is>
-      </c>
-      <c r="K2" s="14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ПКС - 21
-</t>
-        </is>
-      </c>
+          <t xml:space="preserve">АКС - 23
+ПКС - 23
+ИБ - 33
+</t>
+        </is>
+      </c>
+      <c r="J2" s="12" t="n"/>
+      <c r="K2" s="14" t="n"/>
     </row>
     <row r="3" ht="50.1" customHeight="1">
       <c r="A3" s="3" t="inlineStr">
@@ -893,49 +913,73 @@
       </c>
       <c r="B3" s="15" t="inlineStr">
         <is>
-          <t xml:space="preserve">ПКС - 31
-</t>
-        </is>
-      </c>
-      <c r="C3" s="16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ПКС - 31
+          <t xml:space="preserve">ПКС - 21
+ИБ - 32
+</t>
+        </is>
+      </c>
+      <c r="C3" s="25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ИБ - 33 
 </t>
         </is>
       </c>
       <c r="D3" s="15" t="inlineStr">
         <is>
-          <t xml:space="preserve">ПКС - 24
-</t>
-        </is>
-      </c>
-      <c r="E3" s="22" t="inlineStr"/>
+          <t xml:space="preserve">ИБ - 33
+</t>
+        </is>
+      </c>
+      <c r="E3" s="25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ПКС - 25 
+ПКС - 24 
+</t>
+        </is>
+      </c>
       <c r="F3" s="15" t="inlineStr">
         <is>
-          <t xml:space="preserve">ПКС - 32
-</t>
-        </is>
-      </c>
-      <c r="G3" s="16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ПКС - 32
+          <t xml:space="preserve">АКС - 23
+ИБ - 32
+</t>
+        </is>
+      </c>
+      <c r="G3" s="25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">АКС - 23
+АКС - 21 
+АКС - 24 
 </t>
         </is>
       </c>
       <c r="H3" s="15" t="inlineStr">
         <is>
-          <t xml:space="preserve">ПКС - 24
+          <t xml:space="preserve">ПКС - 23
+ИБ - 32
 </t>
         </is>
       </c>
       <c r="I3" s="16" t="inlineStr">
         <is>
-          <t xml:space="preserve">ПКС - 24
-</t>
-        </is>
-      </c>
-      <c r="J3" s="15" t="n"/>
-      <c r="K3" s="16" t="n"/>
+          <t xml:space="preserve">ПКС - 23
+ИБ - 32
+</t>
+        </is>
+      </c>
+      <c r="J3" s="15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">АКС - 21
+АКС - 24
+</t>
+        </is>
+      </c>
+      <c r="K3" s="16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">АКС - 21
+АКС - 24
+</t>
+        </is>
+      </c>
     </row>
     <row r="4" ht="50.1" customHeight="1">
       <c r="A4" s="3" t="inlineStr">
@@ -945,44 +989,78 @@
       </c>
       <c r="B4" s="15" t="inlineStr">
         <is>
-          <t xml:space="preserve">ПКС - 32
-</t>
-        </is>
-      </c>
-      <c r="C4" s="22" t="inlineStr"/>
+          <t xml:space="preserve">АКС - 24
+ПКС - 22
+ИБ - 33
+</t>
+        </is>
+      </c>
+      <c r="C4" s="25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">АКС - 24
+ПКС - 22
+АКС - 21 
+АКС - 23 
+</t>
+        </is>
+      </c>
       <c r="D4" s="15" t="inlineStr">
         <is>
-          <t xml:space="preserve">ПКС - 25
-</t>
-        </is>
-      </c>
-      <c r="E4" s="16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ПКС - 25
+          <t xml:space="preserve">ИБ - 21
+</t>
+        </is>
+      </c>
+      <c r="E4" s="22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ИБ - 21
+ПКС - 22 
+ПКС - 23 
 </t>
         </is>
       </c>
       <c r="F4" s="15" t="inlineStr">
         <is>
+          <t xml:space="preserve">ИБ - 33
+</t>
+        </is>
+      </c>
+      <c r="G4" s="25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ПКС - 22 
+ПКС - 23 
+</t>
+        </is>
+      </c>
+      <c r="H4" s="15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">АКС - 21
+ПКС - 24
+ИБ - 32
+</t>
+        </is>
+      </c>
+      <c r="I4" s="16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">АКС - 21
+ПКС - 24
+ИБ - 32
+</t>
+        </is>
+      </c>
+      <c r="J4" s="15" t="inlineStr">
+        <is>
           <t xml:space="preserve">ПКС - 22
-</t>
-        </is>
-      </c>
-      <c r="G4" s="22" t="inlineStr"/>
-      <c r="H4" s="15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ПКС - 25
-</t>
-        </is>
-      </c>
-      <c r="I4" s="16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ПКС - 25
-</t>
-        </is>
-      </c>
-      <c r="J4" s="15" t="n"/>
-      <c r="K4" s="16" t="n"/>
+ПКС - 24
+</t>
+        </is>
+      </c>
+      <c r="K4" s="16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ПКС - 22
+ПКС - 24
+</t>
+        </is>
+      </c>
     </row>
     <row r="5" ht="50.1" customHeight="1">
       <c r="A5" s="3" t="inlineStr">
@@ -992,44 +1070,47 @@
       </c>
       <c r="B5" s="15" t="inlineStr">
         <is>
-          <t xml:space="preserve">ПКС - 31
-</t>
-        </is>
-      </c>
-      <c r="C5" s="22" t="inlineStr"/>
-      <c r="D5" s="15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ПКС - 23
-</t>
-        </is>
-      </c>
-      <c r="E5" s="16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ПКС - 23
+          <t xml:space="preserve">ИБ - 33
+</t>
+        </is>
+      </c>
+      <c r="C5" s="22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ИБ - 33
+ИБ - 32 
+</t>
+        </is>
+      </c>
+      <c r="D5" s="15" t="n"/>
+      <c r="E5" s="22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">АКС - 24 
+АКС - 21 
 </t>
         </is>
       </c>
       <c r="F5" s="15" t="inlineStr">
         <is>
-          <t xml:space="preserve">ПКС - 21
-</t>
-        </is>
-      </c>
-      <c r="G5" s="16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ПКС - 21
+          <t xml:space="preserve">ИБ - 33
+</t>
+        </is>
+      </c>
+      <c r="G5" s="22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ИБ - 33
+ИБ - 32 
 </t>
         </is>
       </c>
       <c r="H5" s="15" t="inlineStr">
         <is>
-          <t xml:space="preserve">ПКС - 23
+          <t xml:space="preserve">ИБ - 32
 </t>
         </is>
       </c>
       <c r="I5" s="16" t="inlineStr">
         <is>
-          <t xml:space="preserve">ПКС - 23
+          <t xml:space="preserve">ИБ - 32
 </t>
         </is>
       </c>
@@ -1042,12 +1123,27 @@
           <t>16.00-17.30</t>
         </is>
       </c>
-      <c r="B6" s="15" t="n"/>
-      <c r="C6" s="16" t="n"/>
+      <c r="B6" s="15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">АКС - 33
+</t>
+        </is>
+      </c>
+      <c r="C6" s="23" t="inlineStr"/>
       <c r="D6" s="15" t="n"/>
       <c r="E6" s="16" t="n"/>
-      <c r="F6" s="15" t="n"/>
-      <c r="G6" s="16" t="n"/>
+      <c r="F6" s="15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ИБ - 32
+</t>
+        </is>
+      </c>
+      <c r="G6" s="23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ИБ - 32
+</t>
+        </is>
+      </c>
       <c r="H6" s="15" t="n"/>
       <c r="I6" s="16" t="n"/>
       <c r="J6" s="15" t="n"/>

--- a/raspisanie.xlsx
+++ b/raspisanie.xlsx
@@ -902,8 +902,18 @@
 </t>
         </is>
       </c>
-      <c r="J2" s="12" t="n"/>
-      <c r="K2" s="14" t="n"/>
+      <c r="J2" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ПКС - 24
+</t>
+        </is>
+      </c>
+      <c r="K2" s="14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ПКС - 24
+</t>
+        </is>
+      </c>
     </row>
     <row r="3" ht="50.1" customHeight="1">
       <c r="A3" s="3" t="inlineStr">
@@ -969,14 +979,12 @@
       <c r="J3" s="15" t="inlineStr">
         <is>
           <t xml:space="preserve">АКС - 21
-АКС - 24
 </t>
         </is>
       </c>
       <c r="K3" s="16" t="inlineStr">
         <is>
           <t xml:space="preserve">АКС - 21
-АКС - 24
 </t>
         </is>
       </c>
@@ -1081,10 +1089,16 @@
 </t>
         </is>
       </c>
-      <c r="D5" s="15" t="n"/>
+      <c r="D5" s="15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">АКС - 23
+</t>
+        </is>
+      </c>
       <c r="E5" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">АКС - 24 
+          <t xml:space="preserve">АКС - 23
+АКС - 24 
 АКС - 21 
 </t>
         </is>
@@ -1132,18 +1146,8 @@
       <c r="C6" s="23" t="inlineStr"/>
       <c r="D6" s="15" t="n"/>
       <c r="E6" s="16" t="n"/>
-      <c r="F6" s="15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ИБ - 32
-</t>
-        </is>
-      </c>
-      <c r="G6" s="23" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ИБ - 32
-</t>
-        </is>
-      </c>
+      <c r="F6" s="15" t="n"/>
+      <c r="G6" s="16" t="n"/>
       <c r="H6" s="15" t="n"/>
       <c r="I6" s="16" t="n"/>
       <c r="J6" s="15" t="n"/>

--- a/raspisanie.xlsx
+++ b/raspisanie.xlsx
@@ -67,11 +67,11 @@
     </font>
     <font>
       <b val="1"/>
-      <color rgb="001b4715"/>
+      <color rgb="0052181b"/>
     </font>
     <font>
       <b val="1"/>
-      <color rgb="0052181b"/>
+      <color rgb="001b4715"/>
     </font>
     <font>
       <b val="1"/>
@@ -105,12 +105,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0086d980"/>
+        <fgColor rgb="00ff707a"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00ff707a"/>
+        <fgColor rgb="0086d980"/>
       </patternFill>
     </fill>
     <fill>
@@ -432,10 +432,10 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -850,7 +850,19 @@
 </t>
         </is>
       </c>
-      <c r="C2" s="24" t="inlineStr">
+      <c r="C2" s="13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">АКС - 31
+</t>
+        </is>
+      </c>
+      <c r="D2" s="12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ИБ - 32
+</t>
+        </is>
+      </c>
+      <c r="E2" s="24" t="inlineStr">
         <is>
           <t xml:space="preserve">АКС - 21 
 АКС - 23 
@@ -858,19 +870,6 @@
 </t>
         </is>
       </c>
-      <c r="D2" s="12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ИБ - 32
-</t>
-        </is>
-      </c>
-      <c r="E2" s="21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ИБ - 32
-ИБ - 33 
-</t>
-        </is>
-      </c>
       <c r="F2" s="12" t="inlineStr">
         <is>
           <t xml:space="preserve">АКС - 24
@@ -880,9 +879,8 @@
       </c>
       <c r="G2" s="24" t="inlineStr">
         <is>
-          <t xml:space="preserve">АКС - 24
-ИБ - 32 
-ИБ - 33 
+          <t xml:space="preserve">АКС - 32
+ПКС - 21 
 </t>
         </is>
       </c>
@@ -894,11 +892,10 @@
 </t>
         </is>
       </c>
-      <c r="I2" s="14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">АКС - 23
-ПКС - 23
-ИБ - 33
+      <c r="I2" s="24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ИБ - 33
+ИБ - 21 
 </t>
         </is>
       </c>
@@ -928,9 +925,9 @@
 </t>
         </is>
       </c>
-      <c r="C3" s="25" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ИБ - 33 
+      <c r="C3" s="22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ИБ - 32
 </t>
         </is>
       </c>
@@ -940,10 +937,10 @@
 </t>
         </is>
       </c>
-      <c r="E3" s="25" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ПКС - 25 
-ПКС - 24 
+      <c r="E3" s="23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ИБ - 33
+ПКС - 25 
 </t>
         </is>
       </c>
@@ -954,9 +951,10 @@
 </t>
         </is>
       </c>
-      <c r="G3" s="25" t="inlineStr">
+      <c r="G3" s="23" t="inlineStr">
         <is>
           <t xml:space="preserve">АКС - 23
+ИБ - 32
 АКС - 21 
 АКС - 24 
 </t>
@@ -969,10 +967,12 @@
 </t>
         </is>
       </c>
-      <c r="I3" s="16" t="inlineStr">
+      <c r="I3" s="23" t="inlineStr">
         <is>
           <t xml:space="preserve">ПКС - 23
 ИБ - 32
+ПКС - 22 
+ПКС - 24 
 </t>
         </is>
       </c>
@@ -982,12 +982,7 @@
 </t>
         </is>
       </c>
-      <c r="K3" s="16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">АКС - 21
-</t>
-        </is>
-      </c>
+      <c r="K3" s="22" t="inlineStr"/>
     </row>
     <row r="4" ht="50.1" customHeight="1">
       <c r="A4" s="3" t="inlineStr">
@@ -1003,12 +998,9 @@
 </t>
         </is>
       </c>
-      <c r="C4" s="25" t="inlineStr">
-        <is>
-          <t xml:space="preserve">АКС - 24
-ПКС - 22
-АКС - 21 
-АКС - 23 
+      <c r="C4" s="22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ИБ - 33
 </t>
         </is>
       </c>
@@ -1018,24 +1010,24 @@
 </t>
         </is>
       </c>
-      <c r="E4" s="22" t="inlineStr">
+      <c r="E4" s="16" t="inlineStr">
         <is>
           <t xml:space="preserve">ИБ - 21
+</t>
+        </is>
+      </c>
+      <c r="F4" s="15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ИБ - 33
+</t>
+        </is>
+      </c>
+      <c r="G4" s="23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ИБ - 33
 ПКС - 22 
 ПКС - 23 
-</t>
-        </is>
-      </c>
-      <c r="F4" s="15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ИБ - 33
-</t>
-        </is>
-      </c>
-      <c r="G4" s="25" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ПКС - 22 
-ПКС - 23 
+ПКС - 24 
 </t>
         </is>
       </c>
@@ -1047,11 +1039,11 @@
 </t>
         </is>
       </c>
-      <c r="I4" s="16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">АКС - 21
-ПКС - 24
-ИБ - 32
+      <c r="I4" s="25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ИБ - 32
+ПКС - 21 
+ПКС - 25 
 </t>
         </is>
       </c>
@@ -1062,13 +1054,7 @@
 </t>
         </is>
       </c>
-      <c r="K4" s="16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ПКС - 22
-ПКС - 24
-</t>
-        </is>
-      </c>
+      <c r="K4" s="22" t="inlineStr"/>
     </row>
     <row r="5" ht="50.1" customHeight="1">
       <c r="A5" s="3" t="inlineStr">
@@ -1082,49 +1068,50 @@
 </t>
         </is>
       </c>
-      <c r="C5" s="22" t="inlineStr">
+      <c r="C5" s="16" t="inlineStr">
         <is>
           <t xml:space="preserve">ИБ - 33
+</t>
+        </is>
+      </c>
+      <c r="D5" s="15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">АКС - 23
+</t>
+        </is>
+      </c>
+      <c r="E5" s="23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">АКС - 23
 ИБ - 32 
 </t>
         </is>
       </c>
-      <c r="D5" s="15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">АКС - 23
-</t>
-        </is>
-      </c>
-      <c r="E5" s="22" t="inlineStr">
-        <is>
-          <t xml:space="preserve">АКС - 23
+      <c r="F5" s="15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ИБ - 33
+</t>
+        </is>
+      </c>
+      <c r="G5" s="23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ИБ - 33
+ИБ - 21 
+</t>
+        </is>
+      </c>
+      <c r="H5" s="15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ИБ - 32
+</t>
+        </is>
+      </c>
+      <c r="I5" s="23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ИБ - 32
+АКС - 21 
+АКС - 23 
 АКС - 24 
-АКС - 21 
-</t>
-        </is>
-      </c>
-      <c r="F5" s="15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ИБ - 33
-</t>
-        </is>
-      </c>
-      <c r="G5" s="22" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ИБ - 33
-ИБ - 32 
-</t>
-        </is>
-      </c>
-      <c r="H5" s="15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ИБ - 32
-</t>
-        </is>
-      </c>
-      <c r="I5" s="16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ИБ - 32
 </t>
         </is>
       </c>
@@ -1143,11 +1130,26 @@
 </t>
         </is>
       </c>
-      <c r="C6" s="23" t="inlineStr"/>
+      <c r="C6" s="16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">АКС - 33
+</t>
+        </is>
+      </c>
       <c r="D6" s="15" t="n"/>
       <c r="E6" s="16" t="n"/>
-      <c r="F6" s="15" t="n"/>
-      <c r="G6" s="16" t="n"/>
+      <c r="F6" s="15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ИБ - 33
+</t>
+        </is>
+      </c>
+      <c r="G6" s="16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ИБ - 33
+</t>
+        </is>
+      </c>
       <c r="H6" s="15" t="n"/>
       <c r="I6" s="16" t="n"/>
       <c r="J6" s="15" t="n"/>
